--- a/수강신청내역_원본.xlsx
+++ b/수강신청내역_원본.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joongyang.park\Google 드라이브\Documents\강의노트\통계데이터베이스\example_dbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joongyang.park\Google 드라이브\Documents\강의\통계데이터베이스\example_dbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18612" windowHeight="9684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18612" windowHeight="9684" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
-    <sheet name="수강신청" sheetId="6" r:id="rId2"/>
-    <sheet name="학생" sheetId="5" r:id="rId3"/>
-    <sheet name="학과" sheetId="2" r:id="rId4"/>
-    <sheet name="교수" sheetId="3" r:id="rId5"/>
-    <sheet name="과목" sheetId="4" r:id="rId6"/>
+    <sheet name="수강신청내역_정규화이전" sheetId="1" r:id="rId1"/>
+    <sheet name="수강신청내역_정규화작업용" sheetId="7" r:id="rId2"/>
+    <sheet name="수강신청" sheetId="6" r:id="rId3"/>
+    <sheet name="학생" sheetId="5" r:id="rId4"/>
+    <sheet name="학과" sheetId="2" r:id="rId5"/>
+    <sheet name="교수" sheetId="3" r:id="rId6"/>
+    <sheet name="과목" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="121">
   <si>
     <t>학과</t>
   </si>
@@ -92,9 +93,6 @@
     <t>choithree@daum.net</t>
   </si>
   <si>
-    <t>parktwo@naver.com</t>
-  </si>
-  <si>
     <t>프로그래밍</t>
   </si>
   <si>
@@ -2434,6 +2432,283 @@
       </rPr>
       <t>.)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2801,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2865,7 +3140,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>1011112222</v>
@@ -2970,13 +3245,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>1011112223</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -2988,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
@@ -2999,19 +3274,19 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>1033331111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -3023,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
@@ -3034,19 +3309,19 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1">
         <v>1044441111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -3058,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>12</v>
@@ -3072,16 +3347,16 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>1055552222</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -3093,7 +3368,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
@@ -3107,16 +3382,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>1055553333</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -3128,7 +3403,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -3139,19 +3414,19 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>1066667777</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -3160,13 +3435,13 @@
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1">
         <v>557723334</v>
@@ -3174,7 +3449,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3182,24 +3457,18 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>1011112222</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3208,13 +3477,13 @@
         <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="L16">
         <v>557723334</v>
@@ -3222,27 +3491,27 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>1011112222</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>1055553333</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -3251,13 +3520,13 @@
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="L19">
         <v>557722222</v>
@@ -3265,32 +3534,32 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>1055553333</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D23">
-        <v>1044441111</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -3299,13 +3568,13 @@
         <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="L23">
         <v>557723333</v>
@@ -3313,12 +3582,18 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>1044441111</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,12 +3601,12 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3339,21 +3614,21 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C23" r:id="rId4"/>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3362,25 +3637,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1011112222</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1">
+        <v>557721111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1011112223</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1">
+        <v>557721111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1022221111</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <v>557721111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1011112223</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1">
+        <v>557722222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1033331111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1">
+        <v>557722222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1044441111</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1">
+        <v>557722222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1055552222</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>557723333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1055553333</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1">
+        <v>557723333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1066667777</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1">
+        <v>557723334</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3388,25 +4122,233 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1011112222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1011112223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1022221111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1033331111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1044441111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1055552222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1055553333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1066667777</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3414,12 +4356,215 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>557721111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>557722222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>557723333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>557723334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/수강신청내역_원본.xlsx
+++ b/수강신청내역_원본.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joongyang.park\Google 드라이브\Documents\강의\통계데이터베이스\example_dbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joong\Google 드라이브\Documents\강의\통계데이터베이스\example_dbs_origianl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574739CA-4894-49FB-B15F-EB38C56CB6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18612" windowHeight="9684" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="21852" windowHeight="13152" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="수강신청내역_정규화이전" sheetId="1" r:id="rId1"/>
-    <sheet name="수강신청내역_정규화작업용" sheetId="7" r:id="rId2"/>
-    <sheet name="수강신청" sheetId="6" r:id="rId3"/>
-    <sheet name="학생" sheetId="5" r:id="rId4"/>
-    <sheet name="학과" sheetId="2" r:id="rId5"/>
-    <sheet name="교수" sheetId="3" r:id="rId6"/>
-    <sheet name="과목" sheetId="4" r:id="rId7"/>
+    <sheet name="수강신청내역 자료의 여러 형태" sheetId="8" r:id="rId1"/>
+    <sheet name="수강신청내역_정규화이전" sheetId="1" r:id="rId2"/>
+    <sheet name="수강신청내역_정규화작업용" sheetId="7" r:id="rId3"/>
+    <sheet name="수강신청" sheetId="6" r:id="rId4"/>
+    <sheet name="학생" sheetId="5" r:id="rId5"/>
+    <sheet name="학과" sheetId="2" r:id="rId6"/>
+    <sheet name="교수" sheetId="3" r:id="rId7"/>
+    <sheet name="과목" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="136">
   <si>
     <t>학과</t>
   </si>
@@ -2709,14 +2711,206 @@
   </si>
   <si>
     <t>P4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강과목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계학개론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍, 수학1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계학개론, 생물학개론</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박열한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>중복되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 데이터</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 학과에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 대한 정보</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2. 교수에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 대한 정보</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. 과목에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. 학생에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2763,6 +2957,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2785,7 +2997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2793,6 +3005,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3073,14 +3287,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6E6993-734C-41D5-84A3-AAF9F1359BDA}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.71875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.94140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.94140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1011112222</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1022221111</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1011112223</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1033331111</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1044441111</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1055552222</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.65">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1055553333</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1066667777</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1011112222</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1022221111</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1011112223</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1033331111</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1044441111</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1055552222</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1055553333</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1066667777</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7473125C-1B81-46D0-886A-88C1C9D651B4}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{64BDF160-36F8-472F-94E0-BB46B86878F4}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{2B78DB37-5BEA-4272-9F5D-F43211C65C49}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{3775F5CE-88BF-4D63-88C1-5711C07676A4}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{5191D19D-7643-44FA-BB2B-A7FE440395E0}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{36930D45-CEB9-4971-B82E-71CA9F2AD8A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
@@ -3094,9 +3796,9 @@
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3132,7 +3834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3167,7 +3869,7 @@
         <v>557721111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3202,7 +3904,7 @@
         <v>557721111</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3237,7 +3939,7 @@
         <v>557721111</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3272,7 +3974,7 @@
         <v>557722222</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3307,7 +4009,7 @@
         <v>557722222</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -3342,7 +4044,7 @@
         <v>557722222</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3377,7 +4079,7 @@
         <v>557723333</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3412,106 +4114,146 @@
         <v>557723333</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="1">
-        <v>1066667777</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>1055553333</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1">
+        <v>557721111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1055553333</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="1">
+        <v>557723334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1066667777</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L12" s="1">
         <v>557723334</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16">
-        <v>557723334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>1011112222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -3520,130 +4262,175 @@
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L19">
-        <v>557722222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>557723334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1011112222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22">
+        <v>557722222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D20">
+      <c r="D23">
         <v>1055553333</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="G23">
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L23">
+      <c r="L26">
         <v>557723333</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>1044441111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{90FF7FEC-B11F-4232-B7E3-21397AF9A099}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{6AEE0F13-5E60-4EA1-95AF-4A670F1CD1E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
@@ -3656,9 +4443,9 @@
     <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3694,7 +4481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3729,7 +4516,7 @@
         <v>557721111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3764,7 +4551,7 @@
         <v>557721111</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3799,7 +4586,7 @@
         <v>557721111</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3834,7 +4621,7 @@
         <v>557722222</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3869,7 +4656,7 @@
         <v>557722222</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -3904,7 +4691,7 @@
         <v>557722222</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -3939,7 +4726,7 @@
         <v>557723333</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3974,67 +4761,164 @@
         <v>557723333</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="1">
-        <v>1066667777</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>1055553333</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1">
+        <v>557721111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.65">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1055553333</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="1">
+        <v>557723334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1066667777</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L12" s="1">
         <v>557723334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="12.9" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9E2AFF4D-D88C-492D-83D9-07FA59106A97}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{421044D7-9D4B-4DE6-82C5-544C4DAB81D9}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{B4A49FE1-65A2-4C61-883F-0E3D6028722D}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{33DEED75-F502-44E9-8CAF-A650E03F7C56}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{3120DFA1-59F4-42B3-92FB-2A39B14A5B41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
@@ -4042,7 +4926,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
@@ -4050,7 +4934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
@@ -4058,7 +4942,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
@@ -4066,7 +4950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>105</v>
       </c>
@@ -4074,7 +4958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>109</v>
       </c>
@@ -4082,7 +4966,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>111</v>
       </c>
@@ -4090,7 +4974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>112</v>
       </c>
@@ -4098,7 +4982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -4106,7 +4990,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
@@ -4120,21 +5004,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
@@ -4151,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>76</v>
       </c>
@@ -4168,7 +5052,7 @@
         <v>1011112222</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>77</v>
       </c>
@@ -4185,7 +5069,7 @@
         <v>1011112223</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
@@ -4202,7 +5086,7 @@
         <v>1022221111</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
@@ -4219,7 +5103,7 @@
         <v>1033331111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>80</v>
       </c>
@@ -4236,7 +5120,7 @@
         <v>1044441111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -4253,7 +5137,7 @@
         <v>1055552222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
@@ -4270,7 +5154,7 @@
         <v>1055553333</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>83</v>
       </c>
@@ -4290,33 +5174,36 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.65">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>72</v>
       </c>
@@ -4324,7 +5211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
@@ -4332,7 +5219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
@@ -4340,7 +5227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="12.9" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>86</v>
       </c>
@@ -4354,15 +5241,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -4370,7 +5257,7 @@
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
@@ -4387,7 +5274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>90</v>
       </c>
@@ -4401,7 +5288,7 @@
         <v>557721111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>91</v>
       </c>
@@ -4415,7 +5302,7 @@
         <v>557722222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
@@ -4429,7 +5316,7 @@
         <v>557723333</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
@@ -4449,22 +5336,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12.9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -4484,7 +5371,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
@@ -4504,7 +5391,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>100</v>
       </c>
@@ -4524,7 +5411,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>101</v>
       </c>
@@ -4544,7 +5431,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>102</v>
       </c>
